--- a/DataConfig/UIForm.xlsx
+++ b/DataConfig/UIForm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>#</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>LoginForm</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>HomeForm</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>GameForm</t>
   </si>
 </sst>
 </file>
@@ -112,6 +124,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -121,13 +155,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -143,13 +170,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,14 +214,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -269,6 +281,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -287,13 +311,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,6 +359,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,18 +413,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -378,36 +420,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,13 +1062,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
@@ -1192,6 +1204,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="2:7">
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9">
+        <v>400</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataConfig/UIForm.xlsx
+++ b/DataConfig/UIForm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25230" windowHeight="8790"/>
+    <workbookView windowWidth="17745" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="UIForm" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>#</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>LoginForm</t>
+  </si>
+  <si>
+    <t>ServerList</t>
+  </si>
+  <si>
+    <t>ServerListForm</t>
   </si>
   <si>
     <t>Home</t>
@@ -103,8 +109,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -116,6 +122,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -125,22 +214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,63 +228,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,39 +252,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,43 +275,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,133 +401,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,15 +466,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,15 +480,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,17 +499,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,6 +543,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -549,17 +566,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -568,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,15 +1068,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1206,7 +1213,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1226,7 +1233,7 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -1241,6 +1248,26 @@
         <v>0</v>
       </c>
       <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10">
+        <v>400</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
         <v>1</v>
       </c>
     </row>

--- a/DataConfig/UIForm.xlsx
+++ b/DataConfig/UIForm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>#</t>
   </si>
@@ -85,10 +85,16 @@
     <t>LoginForm</t>
   </si>
   <si>
-    <t>ServerList</t>
-  </si>
-  <si>
-    <t>ServerListForm</t>
+    <t>WorldServerList</t>
+  </si>
+  <si>
+    <t>WorldServerListForm</t>
+  </si>
+  <si>
+    <t>GameServerList</t>
+  </si>
+  <si>
+    <t>GameServerListForm</t>
   </si>
   <si>
     <t>Home</t>
@@ -122,39 +128,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,9 +160,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,8 +189,37 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,9 +227,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,6 +241,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -221,44 +257,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -275,13 +281,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,73 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,91 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,16 +476,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +532,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -515,15 +554,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,30 +572,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +592,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,10 +1074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1233,7 +1239,7 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9">
-        <v>300</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -1253,7 +1259,7 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1268,6 +1274,26 @@
         <v>0</v>
       </c>
       <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11">
+        <v>400</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
         <v>1</v>
       </c>
     </row>

--- a/DataConfig/UIForm.xlsx
+++ b/DataConfig/UIForm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>#</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>GameServerListForm</t>
+  </si>
+  <si>
+    <t>RoleList</t>
+  </si>
+  <si>
+    <t>RoleListForm</t>
   </si>
   <si>
     <t>Home</t>
@@ -115,9 +121,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,19 +134,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,19 +233,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -181,45 +254,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,46 +272,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,187 +287,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,6 +478,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,80 +578,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -580,10 +586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,133 +598,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,10 +1080,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1259,7 +1265,7 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1279,7 +1285,7 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1294,6 +1300,26 @@
         <v>0</v>
       </c>
       <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12">
+        <v>400</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
         <v>1</v>
       </c>
     </row>
